--- a/original files/LIS_2021-Phytoplankton_Final Report Data.xlsx
+++ b/original files/LIS_2021-Phytoplankton_Final Report Data.xlsx
@@ -1452,7 +1452,7 @@
     <t>other dinoflagellates</t>
   </si>
   <si>
-    <t>cysts of Linggulodinium polyedrum</t>
+    <t>cysts of Lingulodinium polyedra</t>
   </si>
   <si>
     <t>cysts</t>
@@ -51476,7 +51476,7 @@
     </row>
     <row r="205" ht="14.25" customHeight="1">
       <c r="A205" s="10"/>
-      <c r="B205" s="15" t="s">
+      <c r="B205" s="21" t="s">
         <v>473</v>
       </c>
       <c r="C205" s="9"/>
